--- a/biology/Botanique/Orchis/Orchis.xlsx
+++ b/biology/Botanique/Orchis/Orchis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orchis est un genre d'orchidées (famille des Orchidaceae) comprenant plusieurs espèces d'orchidées européennes sauvages terrestres; ce genre, créé par Linné en 1753, regroupait alors de nombreuses espèces dont certaines ont ensuite été séparées pour être transférées dans de nouveaux genres Dactylorhiza et Himantoglossum. En 1997, des analyses génétiques ont conduit à la distribution de certaines espèces supplémentaires du genre Orchis dans les genres Anacamptis et Neotinea.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (26 avr. 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (26 avr. 2010) :
 Orchis adenocheila  Czerniak. (1924)
 Orchis ×algeriensis  B.Baumann &amp; H.Baumann (2005)
 Orchis anatolica  Boiss. (1844)
@@ -599,9 +613,11 @@
           <t>Espèces re-nommées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orchis papilionacea a été renommée en Anacamptis papilionacea, Orchis collina en Anacamptis collina, Orchis morio en Anacamptis morio, Orchis coriophora en Anacamptis coriophora, Orchis lactea en Neotinea lactea, Orchis conica en Neotinea tridentata subsp. conica, Orchis ustulata en Neotinea ustulata, Orchis tridentata en Neotinea tridentata, et Orchis langei en Orchis mascula subsp. laxifloriformis[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orchis papilionacea a été renommée en Anacamptis papilionacea, Orchis collina en Anacamptis collina, Orchis morio en Anacamptis morio, Orchis coriophora en Anacamptis coriophora, Orchis lactea en Neotinea lactea, Orchis conica en Neotinea tridentata subsp. conica, Orchis ustulata en Neotinea ustulata, Orchis tridentata en Neotinea tridentata, et Orchis langei en Orchis mascula subsp. laxifloriformis.
 </t>
         </is>
       </c>
@@ -630,7 +646,9 @@
           <t>Ennemis</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les papillons de nuit (hétérocères) suivants se nourrissent d'orchidées du genre Orchis :
 Cucullie du bouillon blanc Shargacucullia verbasci ou Cucullia (Shargacucullia) verbasci (Noctuidae),
